--- a/ASH/ASH_2021-08-15.xlsx
+++ b/ASH/ASH_2021-08-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>카본필터</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>쵸땜</t>
-  </si>
-  <si>
-    <t>로꼬</t>
   </si>
   <si>
     <t>선봉</t>
@@ -434,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,11 +542,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
